--- a/CDE_ID_detective_revamp/in/ThePersistStudy_DataDictionary_2023-09-15.xlsx
+++ b/CDE_ID_detective_revamp/in/ThePersistStudy_DataDictionary_2023-09-15.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B4CAB8-F479-4ADD-9F45-5B5ABF9183E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1BF22725-2A87-44B3-BAE4-770964DC30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33990" yWindow="10875" windowWidth="30315" windowHeight="15450" xr2:uid="{BED665EC-BA62-451C-8F69-CE6A44CDD6C1}"/>
+    <workbookView xWindow="-37500" yWindow="9795" windowWidth="17640" windowHeight="15105" xr2:uid="{84A8E9F3-9A68-450D-854F-05537C89A83A}"/>
   </bookViews>
   <sheets>
-    <sheet name="output_ThePersistStudy_DataDict" sheetId="1" r:id="rId1"/>
+    <sheet name="ThePersistStudy_DataDictionary_" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -9581,10 +9581,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7990091E-BAC4-4F61-96CE-F9A72FD2ED18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBEDE00-1769-48C8-901B-7722F07B558B}">
   <dimension ref="A1:AL970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
